--- a/TSA 실험데이터_250923.xlsx
+++ b/TSA 실험데이터_250923.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\leeko\Project\구동기\진행\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FEEB997-206F-49AF-ABEF-B3DE8EFBCD51}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47744F97-B259-42C8-AD46-6F87E314989E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15350" xr2:uid="{EEF7846C-A810-4298-AC48-B79EF0286FD9}"/>
   </bookViews>
@@ -379,8 +379,8 @@
       <xdr:rowOff>187644</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8453188" cy="587853"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -554,10 +554,7 @@
                       </m:sSupPr>
                       <m:e>
                         <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -566,7 +563,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>L</m:t>
+                          <m:t>𝑊</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -592,7 +589,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1">
@@ -658,7 +655,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>×L^(−1.38)</a:t>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑊^(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−1.38)</a:t>
               </a:r>
               <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
             </a:p>
@@ -681,8 +702,8 @@
       <xdr:row>69</xdr:row>
       <xdr:rowOff>123264</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="직사각형 2">
@@ -768,7 +789,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="2800"/>
-                <a:t>L : </a:t>
+                <a:t>W : </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ko-KR" altLang="en-US" sz="2800"/>
@@ -890,7 +911,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="직사각형 2">
@@ -976,7 +997,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="2800"/>
-                <a:t>L : </a:t>
+                <a:t>W : </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ko-KR" altLang="en-US" sz="2800"/>
@@ -1040,7 +1061,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2.83×10^5</a:t>
+                <a:t>2.83×〖10〗^5</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="2800"/>
@@ -1064,9 +1085,9 @@
       <xdr:row>70</xdr:row>
       <xdr:rowOff>86591</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8453188" cy="587853"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="8453188" cy="573811"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1080,8 +1101,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="692727" y="14633864"/>
-              <a:ext cx="8453188" cy="587853"/>
+              <a:off x="662214" y="15861805"/>
+              <a:ext cx="8453188" cy="573811"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1149,13 +1170,10 @@
                           <m:t>,</m:t>
                         </m:r>
                         <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>L</m:t>
+                          <m:t>𝑊</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
@@ -1240,10 +1258,7 @@
                       </m:sSupPr>
                       <m:e>
                         <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -1252,7 +1267,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>L</m:t>
+                          <m:t>𝑊</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -1278,7 +1293,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4">
@@ -1292,8 +1307,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="692727" y="14633864"/>
-              <a:ext cx="8453188" cy="587853"/>
+              <a:off x="662214" y="15861805"/>
+              <a:ext cx="8453188" cy="573811"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1325,7 +1340,19 @@
                 <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>C(N,L)=k</a:t>
+                <a:t>C(N,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=k</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
@@ -1344,7 +1371,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>×L^(−1.38)</a:t>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑊^(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−1.38)</a:t>
               </a:r>
               <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600"/>
             </a:p>
@@ -2160,8 +2211,8 @@
       <xdr:row>71</xdr:row>
       <xdr:rowOff>155864</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="직사각형 7">
@@ -2247,7 +2298,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="2800"/>
-                <a:t>L : </a:t>
+                <a:t>W : </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ko-KR" altLang="en-US" sz="2800"/>
@@ -2406,7 +2457,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="직사각형 7">
@@ -2492,7 +2543,7 @@
               <a:pPr algn="l"/>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="2800"/>
-                <a:t>L : </a:t>
+                <a:t>W : </a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="ko-KR" altLang="en-US" sz="2800"/>
@@ -2571,7 +2622,7 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>2.541×10^5</a:t>
+                <a:t>2.541×〖10〗^5</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="2800"/>
@@ -3380,9 +3431,9 @@
       <xdr:row>51</xdr:row>
       <xdr:rowOff>10998</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="8453188" cy="587853"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <xdr:ext cx="8453188" cy="581762"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3396,8 +3447,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12347908" y="10609725"/>
-              <a:ext cx="8453188" cy="587853"/>
+              <a:off x="12016388" y="11649641"/>
+              <a:ext cx="8453188" cy="581762"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3465,13 +3516,22 @@
                           <m:t>,</m:t>
                         </m:r>
                         <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
                             <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
-                          <m:t>L</m:t>
+                          <m:t>𝑊</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>,</m:t>
+                        </m:r>
+                        <m:r>
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝐷</m:t>
                         </m:r>
                       </m:e>
                     </m:d>
@@ -3556,10 +3616,7 @@
                       </m:sSupPr>
                       <m:e>
                         <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -3568,7 +3625,7 @@
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>L</m:t>
+                          <m:t>𝑊</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -3652,7 +3709,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9">
@@ -3666,8 +3723,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12347908" y="10609725"/>
-              <a:ext cx="8453188" cy="587853"/>
+              <a:off x="12016388" y="11649641"/>
+              <a:ext cx="8453188" cy="581762"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3699,7 +3756,19 @@
                 <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>C(N,L)=k</a:t>
+                <a:t>C(N,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑊,𝐷)</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=k</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
@@ -3718,7 +3787,31 @@
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>×L^(−1.326)</a:t>
+                <a:t>×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑊^(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:effectLst/>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−1.326)</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
@@ -3748,8 +3841,8 @@
       <xdr:rowOff>163397</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="8453188" cy="1101584"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -3763,7 +3856,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12465671" y="15126306"/>
+              <a:off x="12134151" y="16374040"/>
               <a:ext cx="8453188" cy="1101584"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -3852,10 +3945,7 @@
                           <m:t>,</m:t>
                         </m:r>
                         <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -3863,7 +3953,7 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>L</m:t>
+                          <m:t>𝑊</m:t>
                         </m:r>
                         <m:r>
                           <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
@@ -4023,10 +4113,7 @@
                       </m:sSupPr>
                       <m:e>
                         <m:r>
-                          <m:rPr>
-                            <m:sty m:val="p"/>
-                          </m:rPr>
-                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="1">
+                          <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="1">
                             <a:solidFill>
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
@@ -4034,7 +4121,7 @@
                             <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
-                          <m:t>L</m:t>
+                          <m:t>𝑊</m:t>
                         </m:r>
                       </m:e>
                       <m:sup>
@@ -4120,7 +4207,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="TextBox 11">
@@ -4134,7 +4221,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="12465671" y="15126306"/>
+              <a:off x="12134151" y="16374040"/>
               <a:ext cx="8453188" cy="1101584"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -4172,7 +4259,51 @@
                   <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:rPr>
-                <a:t>C(N,L,D)=2.541×10^5×N^1.222×L^(−1.326)×D^2.509</a:t>
+                <a:t>C(N,</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑊</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>,D)=2.541×〖10〗^5×N^1.222×</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" b="0" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>𝑊^(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" altLang="ko-KR" sz="3600" i="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:rPr>
+                <a:t>−1.326)×D^2.509</a:t>
               </a:r>
               <a:endParaRPr lang="ko-KR" altLang="en-US" sz="3600" i="1">
                 <a:solidFill>
@@ -4511,7 +4642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC35788F-261C-489C-BD6D-C4D268AC6EC3}">
   <dimension ref="B2:AA42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Z29" sqref="Z29:AA39"/>
     </sheetView>
   </sheetViews>
